--- a/Player_Salaries.xlsx
+++ b/Player_Salaries.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samal\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5601038E-FEEF-45E9-8C59-FA5F48D28C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3DD101-AD1C-46F4-9A4A-BB15C7A5477A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BEDCD8DB-CD67-470E-9013-1860138FF039}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="UpdatedSalaries" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="181">
   <si>
     <t>Team</t>
   </si>
@@ -549,23 +550,79 @@
   </si>
   <si>
     <t>Young Boys</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>Bundesliga</t>
+  </si>
+  <si>
+    <t>Serie A</t>
+  </si>
+  <si>
+    <t>############</t>
+  </si>
+  <si>
+    <t>UEFA Europa League</t>
+  </si>
+  <si>
+    <t>La Liga</t>
+  </si>
+  <si>
+    <t>Ligue 1</t>
+  </si>
+  <si>
+    <t>UEFA Conference League</t>
+  </si>
+  <si>
+    <t>Premier League</t>
+  </si>
+  <si>
+    <t>UEFA Champions League</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="&quot;€&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Aptos Narrow&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Aptos Narrow&quot;"/>
     </font>
   </fonts>
   <fills count="2">
@@ -585,19 +642,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C6A4F818-3277-40BE-9D96-C01DBA190300}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -928,17 +998,2408 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE12C264-FBAD-4914-80E8-E7B8AFE88729}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D169"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8">
+        <v>293078</v>
+      </c>
+      <c r="D2" s="8">
+        <v>162.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="8">
+        <v>947.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>773844</v>
+      </c>
+      <c r="D4" s="8">
+        <v>429.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8">
+        <v>367115</v>
+      </c>
+      <c r="D5" s="8">
+        <v>203.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="8">
+        <v>691731</v>
+      </c>
+      <c r="D6" s="8">
+        <v>384.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8">
+        <v>286156</v>
+      </c>
+      <c r="D7" s="8">
+        <v>158.97999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="8">
+        <v>150000</v>
+      </c>
+      <c r="D8" s="8">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1839.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <v>330960</v>
+      </c>
+      <c r="D10" s="8">
+        <v>183.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="8">
+        <v>100000</v>
+      </c>
+      <c r="D11" s="8">
+        <v>55.56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1118.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8">
+        <v>588653</v>
+      </c>
+      <c r="D13" s="8">
+        <v>327.02999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="8">
+        <v>634.29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1457.48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8">
+        <v>452116</v>
+      </c>
+      <c r="D16" s="8">
+        <v>251.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8">
+        <v>200960</v>
+      </c>
+      <c r="D17" s="8">
+        <v>111.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2054.6999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="8">
+        <v>791.56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2913.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="8">
+        <v>965770</v>
+      </c>
+      <c r="D21" s="8">
+        <v>536.54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="8">
+        <v>728.21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="8">
+        <v>188269</v>
+      </c>
+      <c r="D23" s="8">
+        <v>104.59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="8">
+        <v>574812</v>
+      </c>
+      <c r="D24" s="8">
+        <v>319.33999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="8">
+        <v>50000</v>
+      </c>
+      <c r="D25" s="8">
+        <v>27.78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1190.71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="8">
+        <v>814037</v>
+      </c>
+      <c r="D27" s="8">
+        <v>452.24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="8">
+        <v>584.44000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="8">
+        <v>294042</v>
+      </c>
+      <c r="D29" s="8">
+        <v>163.36000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="8">
+        <v>797500</v>
+      </c>
+      <c r="D30" s="8">
+        <v>443.06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="8">
+        <v>221347</v>
+      </c>
+      <c r="D31" s="8">
+        <v>122.97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="8">
+        <v>648.05999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="8">
+        <v>362694</v>
+      </c>
+      <c r="D33" s="8">
+        <v>201.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="8">
+        <v>60000</v>
+      </c>
+      <c r="D34" s="8">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="8">
+        <v>616730</v>
+      </c>
+      <c r="D35" s="8">
+        <v>342.63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="8">
+        <v>484935.48</v>
+      </c>
+      <c r="D36" s="8">
+        <v>269.41000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="8">
+        <v>119201.82</v>
+      </c>
+      <c r="D37" s="8">
+        <v>66.22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1829.17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="8">
+        <v>577469.55000000005</v>
+      </c>
+      <c r="D39" s="8">
+        <v>320.82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1">
+      <c r="A40" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="8">
+        <v>461926</v>
+      </c>
+      <c r="D40" s="8">
+        <v>256.63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1">
+      <c r="A41" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="8">
+        <v>444340.05</v>
+      </c>
+      <c r="D41" s="8">
+        <v>246.86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1">
+      <c r="A42" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="8">
+        <v>745.83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="8">
+        <v>412195.53</v>
+      </c>
+      <c r="D43" s="8">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1">
+      <c r="A44" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="8">
+        <v>300000</v>
+      </c>
+      <c r="D44" s="8">
+        <v>166.67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1">
+      <c r="A45" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="8">
+        <v>120192</v>
+      </c>
+      <c r="D45" s="8">
+        <v>66.77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1">
+      <c r="A46" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="8">
+        <v>222500</v>
+      </c>
+      <c r="D46" s="8">
+        <v>123.61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1">
+      <c r="A47" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="8">
+        <v>762119</v>
+      </c>
+      <c r="D47" s="8">
+        <v>423.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1">
+      <c r="A48" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="8">
+        <v>360388</v>
+      </c>
+      <c r="D48" s="8">
+        <v>200.22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1">
+      <c r="A49" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="8">
+        <v>390385</v>
+      </c>
+      <c r="D49" s="8">
+        <v>216.88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1">
+      <c r="A50" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" s="8">
+        <v>740.83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="8">
+        <v>509232</v>
+      </c>
+      <c r="D51" s="8">
+        <v>282.91000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1">
+      <c r="A52" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="8">
+        <v>256925</v>
+      </c>
+      <c r="D52" s="8">
+        <v>142.74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1">
+      <c r="A53" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="8">
+        <v>200000</v>
+      </c>
+      <c r="D53" s="8">
+        <v>111.11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1">
+      <c r="A54" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" s="8">
+        <v>830.66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="14.25">
+      <c r="A55" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="8">
+        <v>250000</v>
+      </c>
+      <c r="D55" s="8">
+        <v>138.88999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="14.25">
+      <c r="A56" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="8">
+        <v>587688</v>
+      </c>
+      <c r="D56" s="8">
+        <v>326.49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="14.25">
+      <c r="A57" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="8">
+        <v>234809</v>
+      </c>
+      <c r="D57" s="8">
+        <v>130.44999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="14.25">
+      <c r="A58" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="8">
+        <v>70000</v>
+      </c>
+      <c r="D58" s="8">
+        <v>38.89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="14.25">
+      <c r="A59" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="8">
+        <v>730.83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="14.25">
+      <c r="A60" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="8">
+        <v>843.06</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="14.25">
+      <c r="A61" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="8">
+        <v>626347</v>
+      </c>
+      <c r="D61" s="8">
+        <v>347.97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="14.25">
+      <c r="A62" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="8">
+        <v>234615</v>
+      </c>
+      <c r="D62" s="8">
+        <v>130.34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="14.25">
+      <c r="A63" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="8">
+        <v>446730</v>
+      </c>
+      <c r="D63" s="8">
+        <v>248.18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="14.25">
+      <c r="A64" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="8">
+        <v>711729</v>
+      </c>
+      <c r="D64" s="8">
+        <v>395.41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="14.25">
+      <c r="A65" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="8">
+        <v>110905.84</v>
+      </c>
+      <c r="D65" s="8">
+        <v>61.61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="14.25">
+      <c r="A66" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="8">
+        <v>359232</v>
+      </c>
+      <c r="D66" s="8">
+        <v>199.57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="14.25">
+      <c r="A67" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="8">
+        <v>80000</v>
+      </c>
+      <c r="D67" s="8">
+        <v>44.44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="14.25">
+      <c r="A68" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="8">
+        <v>224614</v>
+      </c>
+      <c r="D68" s="8">
+        <v>124.79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="14.25">
+      <c r="A69" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="8">
+        <v>90000</v>
+      </c>
+      <c r="D69" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="14.25">
+      <c r="A70" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" s="8">
+        <v>1276.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="14.25">
+      <c r="A71" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="8">
+        <v>638000</v>
+      </c>
+      <c r="D71" s="8">
+        <v>354.44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="14.25">
+      <c r="A72" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" s="8">
+        <v>577883</v>
+      </c>
+      <c r="D72" s="8">
+        <v>321.05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="14.25">
+      <c r="A73" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="8">
+        <v>60000</v>
+      </c>
+      <c r="D73" s="8">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="14.25">
+      <c r="A74" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" s="8">
+        <v>1019.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="14.25">
+      <c r="A75" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="8">
+        <v>40000</v>
+      </c>
+      <c r="D75" s="8">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="14.25">
+      <c r="A76" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="8">
+        <v>558654</v>
+      </c>
+      <c r="D76" s="8">
+        <v>310.36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="14.25">
+      <c r="A77" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="8">
+        <v>190962</v>
+      </c>
+      <c r="D77" s="8">
+        <v>106.09</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="14.25">
+      <c r="A78" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="8">
+        <v>955000</v>
+      </c>
+      <c r="D78" s="8">
+        <v>530.55999999999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="14.25">
+      <c r="A79" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="8">
+        <v>519039</v>
+      </c>
+      <c r="D79" s="8">
+        <v>288.36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" s="8">
+        <v>327695</v>
+      </c>
+      <c r="D80" s="8">
+        <v>182.05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" s="8">
+        <v>320000</v>
+      </c>
+      <c r="D81" s="8">
+        <v>177.78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82" s="8">
+        <v>136538</v>
+      </c>
+      <c r="D82" s="8">
+        <v>75.849999999999994</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D83" s="8">
+        <v>698.89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="8">
+        <v>749040</v>
+      </c>
+      <c r="D84" s="8">
+        <v>416.13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D85" s="8">
+        <v>758.66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86" s="8">
+        <v>1376.11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="8">
+        <v>250000</v>
+      </c>
+      <c r="D87" s="8">
+        <v>138.88999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88" s="8">
+        <v>136538</v>
+      </c>
+      <c r="D88" s="8">
+        <v>75.849999999999994</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D89" s="8">
+        <v>754.27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" s="8">
+        <v>300000</v>
+      </c>
+      <c r="D90" s="8">
+        <v>166.67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C91" s="8">
+        <v>514615</v>
+      </c>
+      <c r="D91" s="8">
+        <v>285.89999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" s="8">
+        <v>429999</v>
+      </c>
+      <c r="D92" s="8">
+        <v>238.89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C93" s="8">
+        <v>153077</v>
+      </c>
+      <c r="D93" s="8">
+        <v>85.04</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D94" s="8">
+        <v>2156.67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D95" s="8">
+        <v>1982.69</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D96" s="8">
+        <v>562.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="8">
+        <v>234423</v>
+      </c>
+      <c r="D97" s="8">
+        <v>130.24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="8">
+        <v>70000</v>
+      </c>
+      <c r="D98" s="8">
+        <v>38.89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" s="8">
+        <v>107500</v>
+      </c>
+      <c r="D99" s="8">
+        <v>59.72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C100" s="8">
+        <v>282116</v>
+      </c>
+      <c r="D100" s="8">
+        <v>156.72999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C101" s="8">
+        <v>398848</v>
+      </c>
+      <c r="D101" s="8">
+        <v>221.58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C102" s="8">
+        <v>426154</v>
+      </c>
+      <c r="D102" s="8">
+        <v>236.75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D103" s="8">
+        <v>821.47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D104" s="8">
+        <v>1103.33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105" s="8">
+        <v>570002</v>
+      </c>
+      <c r="D105" s="8">
+        <v>316.67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" s="8">
+        <v>50000</v>
+      </c>
+      <c r="D106" s="8">
+        <v>27.78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D107" s="8">
+        <v>678.33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C108" s="8">
+        <v>80000</v>
+      </c>
+      <c r="D108" s="8">
+        <v>44.44</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C109" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D109" s="8">
+        <v>277.77999999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C110" s="8">
+        <v>120000</v>
+      </c>
+      <c r="D110" s="8">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" s="8">
+        <v>427501</v>
+      </c>
+      <c r="D111" s="8">
+        <v>237.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C112" s="8">
+        <v>100000</v>
+      </c>
+      <c r="D112" s="8">
+        <v>55.56</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C113" s="8">
+        <v>400000</v>
+      </c>
+      <c r="D113" s="8">
+        <v>222.22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C114" s="8">
+        <v>350000</v>
+      </c>
+      <c r="D114" s="8">
+        <v>194.44</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D115" s="8">
+        <v>2229.6999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C116" s="8">
+        <v>374233</v>
+      </c>
+      <c r="D116" s="8">
+        <v>207.91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C117" s="8">
+        <v>30000</v>
+      </c>
+      <c r="D117" s="8">
+        <v>16.670000000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C118" s="8">
+        <v>599810</v>
+      </c>
+      <c r="D118" s="8">
+        <v>333.23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C119" s="8">
+        <v>591730</v>
+      </c>
+      <c r="D119" s="8">
+        <v>328.74</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" s="8">
+        <v>200000</v>
+      </c>
+      <c r="D120" s="8">
+        <v>111.11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C121" s="8">
+        <v>534326</v>
+      </c>
+      <c r="D121" s="8">
+        <v>296.85000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C122" s="8">
+        <v>235962</v>
+      </c>
+      <c r="D122" s="8">
+        <v>131.09</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C123" s="8">
+        <v>417309</v>
+      </c>
+      <c r="D123" s="8">
+        <v>231.84</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D124" s="8">
+        <v>1093.7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C125" s="8">
+        <v>968654</v>
+      </c>
+      <c r="D125" s="8">
+        <v>538.14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D126" s="8">
+        <v>2916.24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C127" s="8">
+        <v>781731</v>
+      </c>
+      <c r="D127" s="8">
+        <v>434.3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C128" s="8">
+        <v>335000</v>
+      </c>
+      <c r="D128" s="8">
+        <v>186.11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" s="8">
+        <v>70962</v>
+      </c>
+      <c r="D129" s="8">
+        <v>39.42</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C130" s="8">
+        <v>311734</v>
+      </c>
+      <c r="D130" s="8">
+        <v>173.19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C131" s="8">
+        <v>557502</v>
+      </c>
+      <c r="D131" s="8">
+        <v>309.72000000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C132" s="8">
+        <v>50000</v>
+      </c>
+      <c r="D132" s="8">
+        <v>27.78</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D133" s="8">
+        <v>850.21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C134" s="8">
+        <v>286154</v>
+      </c>
+      <c r="D134" s="8">
+        <v>158.97</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C135" s="8">
+        <v>467500</v>
+      </c>
+      <c r="D135" s="8">
+        <v>259.72000000000003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D136" s="8">
+        <v>610.36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C137" s="8">
+        <v>396538</v>
+      </c>
+      <c r="D137" s="8">
+        <v>220.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C138" s="8">
+        <v>60000</v>
+      </c>
+      <c r="D138" s="8">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C139" s="8">
+        <v>300000</v>
+      </c>
+      <c r="D139" s="8">
+        <v>166.67</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C140" s="8">
+        <v>150000</v>
+      </c>
+      <c r="D140" s="8">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D141" s="8">
+        <v>598.61</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C142" s="8">
+        <v>350000</v>
+      </c>
+      <c r="D142" s="8">
+        <v>194.44</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C143" s="8">
+        <v>580003</v>
+      </c>
+      <c r="D143" s="8">
+        <v>322.22000000000003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C144" s="8">
+        <v>200000</v>
+      </c>
+      <c r="D144" s="8">
+        <v>111.11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C145" s="8">
+        <v>402309</v>
+      </c>
+      <c r="D145" s="8">
+        <v>223.51</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C146" s="8">
+        <v>180000</v>
+      </c>
+      <c r="D146" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C147" s="8">
+        <v>20000</v>
+      </c>
+      <c r="D147" s="8">
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C148" s="8">
+        <v>562115</v>
+      </c>
+      <c r="D148" s="8">
+        <v>312.29000000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D149" s="8">
+        <v>1119.72</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C150" s="8">
+        <v>269614</v>
+      </c>
+      <c r="D150" s="8">
+        <v>149.79</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D151" s="8">
+        <v>566.99</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C152" s="8">
+        <v>168465</v>
+      </c>
+      <c r="D152" s="8">
+        <v>93.59</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C153" s="8">
+        <v>398273</v>
+      </c>
+      <c r="D153" s="8">
+        <v>221.26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C154" s="8">
+        <v>499807</v>
+      </c>
+      <c r="D154" s="8">
+        <v>277.67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C155" s="8">
+        <v>150000</v>
+      </c>
+      <c r="D155" s="8">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C156" s="8">
+        <v>717691</v>
+      </c>
+      <c r="D156" s="8">
+        <v>398.72</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C157" s="8">
+        <v>354422</v>
+      </c>
+      <c r="D157" s="8">
+        <v>196.9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C158" s="8">
+        <v>376347</v>
+      </c>
+      <c r="D158" s="8">
+        <v>209.08</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C159" s="8">
+        <v>710191</v>
+      </c>
+      <c r="D159" s="8">
+        <v>394.55</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C160" s="8">
+        <v>406348</v>
+      </c>
+      <c r="D160" s="8">
+        <v>225.75</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D161" s="8">
+        <v>569.12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C162" s="8">
+        <v>40000</v>
+      </c>
+      <c r="D162" s="8">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C163" s="8">
+        <v>250000</v>
+      </c>
+      <c r="D163" s="8">
+        <v>138.88999999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C164" s="8">
+        <v>841924</v>
+      </c>
+      <c r="D164" s="8">
+        <v>467.74</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C165" s="8">
+        <v>125772</v>
+      </c>
+      <c r="D165" s="8">
+        <v>69.87</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C166" s="8">
+        <v>496153</v>
+      </c>
+      <c r="D166" s="8">
+        <v>275.64</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D167" s="8">
+        <v>963.89</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D168" s="8">
+        <v>568.61</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C169" s="8">
+        <v>400000</v>
+      </c>
+      <c r="D169" s="8">
+        <v>222.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF0E444-6B99-4BF1-A329-6622FD30F459}">
   <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -2977,5 +5438,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>